--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDDDA09-5D42-4798-AFF1-E90D380EB6DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3FFEF-2599-4F96-AF3B-59989394DEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>成績にかかわらず３回以上30点以下の成績を取っていれば再テスト、一度でも10点より下の点数を取っていれば不合格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松岡</t>
+    <rPh sb="0" eb="2">
+      <t>マツオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assertを使う</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -213,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,13 +572,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
   <dimension ref="A2:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:J12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="35.375" customWidth="1"/>
+    <col min="10" max="10" width="34.125" customWidth="1"/>
+    <col min="24" max="24" width="8.5" customWidth="1"/>
+    <col min="25" max="25" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -798,7 +821,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -806,9 +831,15 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>45234</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>

--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3FFEF-2599-4F96-AF3B-59989394DEBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44007DF0-022D-4EC4-ADA5-F3940F50E82B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
@@ -163,6 +163,13 @@
     <t>assertを使う</t>
     <rPh sb="7" eb="8">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>境界値テスト</t>
+    <rPh sb="0" eb="3">
+      <t>キョウカイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
   <dimension ref="A2:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:V10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -843,7 +850,9 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
